--- a/src/experiment/results/wilcoxon/colon/both/L1SVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/both/L1SVM_auc_folds.xlsx
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6571428571428573</v>
+        <v>0.8125</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4571428571428572</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/src/experiment/results/wilcoxon/colon/both/L1SVM_auc_folds.xlsx
+++ b/src/experiment/results/wilcoxon/colon/both/L1SVM_auc_folds.xlsx
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8125</v>
+        <v>0.6571428571428573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -589,10 +589,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4571428571428572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
